--- a/device_info.xlsx
+++ b/device_info.xlsx
@@ -1,37 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Projects\bacnet_test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C14AC09-4BDE-4A14-9E4B-A75974C40152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>deviceInstance</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>192.168.105.7</t>
+  </si>
+  <si>
+    <t>1000:1</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1007:0x7f000001b4c2</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>0x7f000001b4c2</t>
+  </si>
+  <si>
+    <t>1007:0x7f000001b4c3</t>
+  </si>
+  <si>
+    <t>0x7f000001b4c3</t>
+  </si>
+  <si>
+    <t>192.168.105.63</t>
+  </si>
+  <si>
+    <t>192.168.105.8</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +105,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,124 +429,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>address</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>deviceInstance</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>IP</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Network</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>MAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>192.168.105.7</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
         <v>1000</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>192.168.105.7</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1000:1</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
         <v>1001</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1007:0x7f000001b4c2</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
         <v>1100</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1007</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0x7f000001b4c2</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1007:0x7f000001b4c3</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
         <v>1200</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1007</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0x7f000001b4c3</t>
-        </is>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>1601</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>1603</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/device_info.xlsx
+++ b/device_info.xlsx
@@ -1,96 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Projects\bacnet_test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C14AC09-4BDE-4A14-9E4B-A75974C40152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>deviceInstance</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>Network</t>
-  </si>
-  <si>
-    <t>MAC</t>
-  </si>
-  <si>
-    <t>192.168.105.7</t>
-  </si>
-  <si>
-    <t>1000:1</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1007:0x7f000001b4c2</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>0x7f000001b4c2</t>
-  </si>
-  <si>
-    <t>1007:0x7f000001b4c3</t>
-  </si>
-  <si>
-    <t>0x7f000001b4c3</t>
-  </si>
-  <si>
-    <t>192.168.105.63</t>
-  </si>
-  <si>
-    <t>192.168.105.8</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -105,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -429,111 +420,2354 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>1000</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>1001</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>1100</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>1200</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>1601</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>1603</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>deviceInstance</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MAC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>10.22.0.63</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10.22.0.63</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1011:1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4001</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1011:2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4002</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1011:3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4003</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1011:4</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4004</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1011:5</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4005</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1011:6</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4006</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1011:7</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4007</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1011:9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4009</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1011:10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4010</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1011:11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4011</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1011:14</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4014</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1011:15</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4015</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1011:16</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4016</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1011:17</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4017</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1011:19</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4019</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>10.22.0.148</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100000</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10.22.0.148</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1000:1</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100001</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1000:2</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100002</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1000:3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100003</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1000:4</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100004</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1000:5</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100005</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1000:6</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100006</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1000:7</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100007</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1000:8</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>100008</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1000:9</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>100009</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1000:10</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>100010</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1000:11</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>100011</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1000:12</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>100012</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1000:13</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>100013</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1000:14</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>100014</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1000:15</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>100015</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1000:16</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>100016</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1000:17</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>100017</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1000:18</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>100018</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1000:19</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>100019</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1000:20</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>100020</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1000:21</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>100021</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1000:22</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>100022</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1000:23</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>100023</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1000:24</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>100024</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1000:25</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>100025</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1000:26</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>100026</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1000:27</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>100027</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1000:28</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>100028</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1000:29</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>100029</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1000:30</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>100030</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1000:31</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>100031</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1000:32</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>100032</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1006:0x7f000001b4c2</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>100100</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0x7f000001b4c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1001:1</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>100101</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1001:2</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>100102</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1001:3</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>100103</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>10.22.0.150</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>101000</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>10.22.0.150</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1010:1</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>101001</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1010:2</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>101002</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1010:3</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>101003</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1010:4</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>101004</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1010:6</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>101006</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1010:11</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>101011</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1010:12</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>101012</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1010:13</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>101013</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1010:14</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>101014</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1010:15</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>101015</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1010:17</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>101017</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1010:19</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>101019</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1010:20</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>101020</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>1010:21</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>101021</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1010:22</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>101022</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>1010:23</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>101023</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1010:24</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>101024</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1010:25</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>101025</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1016:0x7f000001b4c2</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>101100</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0x7f000001b4c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1011:8</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>101108</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1012:1</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>101201</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1012:2</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>101202</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1012:3</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>101203</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1012:4</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>101204</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1012:5</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>101205</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1012:6</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>101206</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1012:7</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>101207</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>10.22.6.179</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>102000</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>10.22.6.179</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>1020:1</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>102001</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1020:2</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>102002</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>10.22.6.182</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>199002</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>10.22.6.182</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>10.22.0.140</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>200000</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>10.22.0.140</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2002:1</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>200001</v>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2002:2</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>200002</v>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2002:3</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>200003</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2002:4</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>200004</v>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2002:5</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>200005</v>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2002:6</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>200006</v>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2002:7</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>200007</v>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2002:8</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>200008</v>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2002:9</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>200009</v>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2002:10</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>200010</v>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2002:11</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>200011</v>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2002:33</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>200033</v>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2002:34</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>200034</v>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2002:67</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>200035</v>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2002:36</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>200036</v>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2002:37</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>200037</v>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>10.22.7.151</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>201000</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>10.22.7.151</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>10.22.6.176</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>203000</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>10.22.6.176</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2032:1</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>203001</v>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2032</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>10.22.6.177</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>204000</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>10.22.6.177</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>10.22.6.175</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>205000</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>10.22.6.175</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>10.22.6.183</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>206000</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>10.22.6.183</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>10.22.7.150</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>299001</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>10.22.7.150</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>10.22.6.184</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>299003</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>10.22.6.184</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>10.22.1.132</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>299999</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>10.22.1.132</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>10.22.0.152</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>399001</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>10.22.0.152</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>10.22.1.200</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>3056763</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>10.22.1.200</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
